--- a/数据整理/stocks/港股/00762-中国联通.xlsx
+++ b/数据整理/stocks/港股/00762-中国联通.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.96</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.76</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -530,15 +550,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.96</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.76</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -553,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +602,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +632,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005142</t>
+          <t>009984</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
+          <t>鹏华启航两年封闭运作混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>16.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9852</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +670,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005143</t>
+          <t>008134</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
+          <t>鹏华优选价值股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +708,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009984</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华启航两年封闭运作混合</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -688,15 +756,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.66</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.40</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -706,26 +784,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007108</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -734,26 +822,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008134</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华优选价值股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00762-中国联通.xlsx
+++ b/数据整理/stocks/港股/00762-中国联通.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -830,7 +831,6 @@
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>93.66</t>
@@ -845,6 +845,212 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9357</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00762-中国联通.xlsx
+++ b/数据整理/stocks/港股/00762-中国联通.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1057,4 +1058,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8737</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00762-中国联通.xlsx
+++ b/数据整理/stocks/港股/00762-中国联通.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1266,4 +1267,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00762-中国联通.xlsx
+++ b/数据整理/stocks/港股/00762-中国联通.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1275,7 +1276,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1286,17 +1287,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1306,14 +1327,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3221</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1322,14 +1365,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.09</v>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1338,14 +1403,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.22</v>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1354,13 +1441,187 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00762-中国联通.xlsx
+++ b/数据整理/stocks/港股/00762-中国联通.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1520,7 +1521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1531,17 +1532,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1551,14 +1572,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0546</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.44</v>
       </c>
     </row>
     <row r="3">
@@ -1567,14 +1610,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0546</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1583,14 +1648,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.09</v>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8541</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1599,14 +1686,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.22</v>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1615,13 +1724,355 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00762-中国联通.xlsx
+++ b/数据整理/stocks/港股/00762-中国联通.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1955,7 +1956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1966,17 +1967,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1986,14 +2007,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.24</v>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8835</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2002,14 +2045,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.44</v>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8756</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2018,14 +2083,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8756</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
@@ -2034,14 +2205,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2050,14 +2221,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.22</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="7">
@@ -2066,13 +2237,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00762-中国联通.xlsx
+++ b/数据整理/stocks/港股/00762-中国联通.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>3.24</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.44</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.22</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -600,6 +617,364 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8882</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7619</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7619</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>66.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +1144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1203,7 +1578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1440,214 +1815,6 @@
       </c>
       <c r="H6" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009984</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华启航两年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8737</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008134</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华优选价值股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0879</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0333</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1722,26 +1889,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.86</t>
+          <t>16.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9357</t>
+          <t>0.8737</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1760,26 +1927,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>91.31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1267</t>
+          <t>0.0879</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1798,26 +1965,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0325</t>
+          <t>0.0333</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1836,24 +2003,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1862,6 +2031,212 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9357</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2138,7 +2513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00762-中国联通.xlsx
+++ b/数据整理/stocks/港股/00762-中国联通.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>2.5</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3.24</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.44</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1.22</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -616,7 +633,1103 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2002</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9521</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7470</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016513</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安嘉债券</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7468</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7118</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7118</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012770</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信创新生活混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014094</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方誉盈一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014697</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方誉稳一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014698</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方誉稳一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014214</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014146</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城港股通数字经济主题混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014462</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014147</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城港股通数字经济主题混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014095</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方誉盈一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014215</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014463</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -974,7 +2087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1144,7 +2257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1578,7 +2691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1815,214 +2928,6 @@
       </c>
       <c r="H6" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009984</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华启航两年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8737</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008134</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华优选价值股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0879</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0333</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2097,26 +3002,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.86</t>
+          <t>16.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9357</t>
+          <t>0.8737</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2135,26 +3040,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>91.31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1267</t>
+          <t>0.0879</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2173,26 +3078,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0325</t>
+          <t>0.0333</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2211,24 +3116,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2237,6 +3144,212 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9357</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2511,134 +3624,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0346</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>